--- a/ListasDatos/Acevedo Rendón Ismael Arturo_2021.xlsx
+++ b/ListasDatos/Acevedo Rendón Ismael Arturo_2021.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="915">
   <si>
     <t>NC</t>
   </si>
@@ -491,15 +491,213 @@
     <t>2721712088</t>
   </si>
   <si>
+    <t>NICOLASA SAVALA PELAYO</t>
+  </si>
+  <si>
+    <t>ANDRES BARRAGAN SANTOS</t>
+  </si>
+  <si>
+    <t>MARIA RAMÍREZ RAMÍREZ</t>
+  </si>
+  <si>
+    <t>EUSTOLIA HERNANDEZ SUAREZ</t>
+  </si>
+  <si>
+    <t>ROSA TZOMPAXTLE CERÓN</t>
+  </si>
+  <si>
+    <t>GLORIA PINEDA GARCÍA</t>
+  </si>
+  <si>
+    <t>LUZ VIANNEY MARCELINO VAZQUEZ</t>
+  </si>
+  <si>
+    <t>GLADIS ALEJANDRA MONTAVO CHACÓN</t>
+  </si>
+  <si>
+    <t>SARA VILLA LUNA</t>
+  </si>
+  <si>
+    <t>MARÍA DE JESÚS GONZÁLEZ TAPÍA</t>
+  </si>
+  <si>
+    <t>KARINA GUADALUPE PEREZ SAN JUAN</t>
+  </si>
+  <si>
+    <t>ANDRES GARCIA MONTIEL</t>
+  </si>
+  <si>
     <t>HEIDI AMELIA CAPORAL MORALES</t>
   </si>
   <si>
+    <t>JESUS SILVANO HERNANDEZ GARCIA</t>
+  </si>
+  <si>
+    <t>ESPERANZA LIBRADO CORONADA</t>
+  </si>
+  <si>
+    <t>MARCOS LUNA GARCIA</t>
+  </si>
+  <si>
+    <t>ELIZABETH FLORES GARCÍA</t>
+  </si>
+  <si>
+    <t>MARIA LUCRECIA RODRIGUEZ MORENO</t>
+  </si>
+  <si>
+    <t>HECTOR AURELIO MONT SARMIENTO</t>
+  </si>
+  <si>
+    <t>ALMA DELIA FLORES SAN PEDRO</t>
+  </si>
+  <si>
+    <t>ELSA JASMIN PAZ GONZALEZ</t>
+  </si>
+  <si>
+    <t>ASUNCIÓN CASTILLO HERNÁNDEZ</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO QUERO RIVERA</t>
+  </si>
+  <si>
+    <t>KATIE MAGDALENA VILLEGAS GARRIDO</t>
+  </si>
+  <si>
+    <t>NATIVIDAD TLAXCALTECA RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SOCORRO ARELLANO BERNABE</t>
+  </si>
+  <si>
+    <t>ELENA OLGA CASTRO MELCHOR</t>
+  </si>
+  <si>
+    <t>ANA GABRIELA MONTIEL AGUILAR</t>
+  </si>
+  <si>
+    <t>MARCELA FELICITAS XOTLANIHUA COLOHUA</t>
+  </si>
+  <si>
+    <t>diego123ramirez@icloud.com</t>
+  </si>
+  <si>
+    <t>eushernandez93@gmail.com</t>
+  </si>
+  <si>
+    <t>rousgartzg@gmail.com</t>
+  </si>
+  <si>
+    <t>Gloriapineda8121@gmail.com</t>
+  </si>
+  <si>
+    <t>luxviann1626@gmail.com</t>
+  </si>
+  <si>
+    <t>mariadejesusgonzaleztapia18@gmail.com</t>
+  </si>
+  <si>
     <t>franciscologan736@gmail.com</t>
   </si>
   <si>
+    <t>hildahernandez0011@gmail.com</t>
+  </si>
+  <si>
+    <t>esperanzacoronado795@gmail.com</t>
+  </si>
+  <si>
+    <t>distribuidor.imperio@gmail.com</t>
+  </si>
+  <si>
+    <t>elizabethflores110181@gmail.com</t>
+  </si>
+  <si>
+    <t>montlunah@gmail.com</t>
+  </si>
+  <si>
+    <t>elsajasminpaz@gmail.com</t>
+  </si>
+  <si>
+    <t>asuncast1508@gmail.com</t>
+  </si>
+  <si>
+    <t>fanasa122@gmail.com</t>
+  </si>
+  <si>
+    <t>abrilreyes353@gmail.com</t>
+  </si>
+  <si>
+    <t>socorroarellano410@gmail.com</t>
+  </si>
+  <si>
+    <t>elenaolgac05@hotmail.com</t>
+  </si>
+  <si>
+    <t>anagabrielamontielaguilar@gmil.com</t>
+  </si>
+  <si>
+    <t>marce_felicitas@hotmeil.com</t>
+  </si>
+  <si>
+    <t>2721149969</t>
+  </si>
+  <si>
+    <t>272207941q</t>
+  </si>
+  <si>
+    <t>2721875959</t>
+  </si>
+  <si>
+    <t>2722249426</t>
+  </si>
+  <si>
+    <t>2722973644</t>
+  </si>
+  <si>
+    <t>2721877112</t>
+  </si>
+  <si>
+    <t>2722337781</t>
+  </si>
+  <si>
+    <t>2721349831</t>
+  </si>
+  <si>
+    <t>2721428630</t>
+  </si>
+  <si>
     <t>27223064448</t>
   </si>
   <si>
+    <t>2721466616</t>
+  </si>
+  <si>
+    <t>2721968779</t>
+  </si>
+  <si>
+    <t>2727210379</t>
+  </si>
+  <si>
+    <t>2721991474</t>
+  </si>
+  <si>
+    <t>2722600364</t>
+  </si>
+  <si>
+    <t>2721567675</t>
+  </si>
+  <si>
+    <t>2721981229</t>
+  </si>
+  <si>
+    <t>2722229520</t>
+  </si>
+  <si>
+    <t>2721680521</t>
+  </si>
+  <si>
+    <t>2721312391</t>
+  </si>
+  <si>
     <t>ALVAREZ</t>
   </si>
   <si>
@@ -689,25 +887,25 @@
     <t>macr090477@gmail.com</t>
   </si>
   <si>
-    <t>2721822906.0</t>
-  </si>
-  <si>
-    <t>5566868104.0</t>
-  </si>
-  <si>
-    <t>2721908057.0</t>
-  </si>
-  <si>
-    <t>2722351016.0</t>
-  </si>
-  <si>
-    <t>2721318182.0</t>
-  </si>
-  <si>
-    <t>2713165753.0</t>
-  </si>
-  <si>
-    <t>2722797038.0</t>
+    <t>2721822906</t>
+  </si>
+  <si>
+    <t>5566868104</t>
+  </si>
+  <si>
+    <t>2721908057</t>
+  </si>
+  <si>
+    <t>2722351016</t>
+  </si>
+  <si>
+    <t>2721318182</t>
+  </si>
+  <si>
+    <t>2713165753</t>
+  </si>
+  <si>
+    <t>2722797038</t>
   </si>
   <si>
     <t>2722077414</t>
@@ -716,31 +914,31 @@
     <t>2723344713</t>
   </si>
   <si>
-    <t>2727059550.0</t>
-  </si>
-  <si>
-    <t>2722953104.0</t>
+    <t>2727059550</t>
+  </si>
+  <si>
+    <t>2722953104</t>
   </si>
   <si>
     <t>2721835509</t>
   </si>
   <si>
-    <t>2721288401.0</t>
+    <t>2721288401</t>
   </si>
   <si>
     <t>2722796078</t>
   </si>
   <si>
-    <t>2722808116.0</t>
-  </si>
-  <si>
-    <t>2721718612.0</t>
-  </si>
-  <si>
-    <t>2722112726.0</t>
-  </si>
-  <si>
-    <t>2721882932.0</t>
+    <t>2722808116</t>
+  </si>
+  <si>
+    <t>2721718612</t>
+  </si>
+  <si>
+    <t>2722112726</t>
+  </si>
+  <si>
+    <t>2721882932</t>
   </si>
   <si>
     <t>2721057879</t>
@@ -749,40 +947,40 @@
     <t>2722336864</t>
   </si>
   <si>
-    <t>2727212102.0</t>
-  </si>
-  <si>
-    <t>2727055271.0</t>
-  </si>
-  <si>
-    <t>2722017264.0</t>
-  </si>
-  <si>
-    <t>2721733068.0</t>
-  </si>
-  <si>
-    <t>2727255608.0</t>
-  </si>
-  <si>
-    <t>2717130876.0</t>
-  </si>
-  <si>
-    <t>8118557401.0</t>
+    <t>2727212102</t>
+  </si>
+  <si>
+    <t>2727055271</t>
+  </si>
+  <si>
+    <t>2722017264</t>
+  </si>
+  <si>
+    <t>2721733068</t>
+  </si>
+  <si>
+    <t>2727255608</t>
+  </si>
+  <si>
+    <t>2717130876</t>
+  </si>
+  <si>
+    <t>8118557401</t>
   </si>
   <si>
     <t>2721477398</t>
   </si>
   <si>
-    <t>2722170013.0</t>
-  </si>
-  <si>
-    <t>2721470035.0</t>
-  </si>
-  <si>
-    <t>2722299247.0</t>
-  </si>
-  <si>
-    <t>2721306767.0</t>
+    <t>2722170013</t>
+  </si>
+  <si>
+    <t>2721470035</t>
+  </si>
+  <si>
+    <t>2722299247</t>
+  </si>
+  <si>
+    <t>2721306767</t>
   </si>
   <si>
     <t>2722018680</t>
@@ -815,12 +1013,18 @@
     <t>ILIANA SANTOS GUTIERREZ</t>
   </si>
   <si>
+    <t>JIMENEZ MARÍA SOLEDAD MOTA</t>
+  </si>
+  <si>
     <t>CATALINA SÁNCHEZ MAZAHUA</t>
   </si>
   <si>
     <t>TERESITA HERNANDEZ CORTEZ</t>
   </si>
   <si>
+    <t>MARISELA RODRIGUEZ VEGA</t>
+  </si>
+  <si>
     <t>DELIA ROSAS RUIZ</t>
   </si>
   <si>
@@ -839,10 +1043,10 @@
     <t>MARIA GUADALUPE REYES SANCHEZ</t>
   </si>
   <si>
-    <t>LUCESITA HERNANDEZ</t>
-  </si>
-  <si>
-    <t>YOLANDA GARCÍA ACEVEDO</t>
+    <t>LUZ DEL ROCIO HERNANDEZ LEAL</t>
+  </si>
+  <si>
+    <t>YOLANDA ACEVEDO GARCÍA ACEVEDO</t>
   </si>
   <si>
     <t>angelica199w37@gmail.com</t>
@@ -863,12 +1067,18 @@
     <t>iliana.santos@live.com.mx</t>
   </si>
   <si>
+    <t>mota5378sl@gmail.com</t>
+  </si>
+  <si>
     <t>Kamosan27@gmail.com</t>
   </si>
   <si>
     <t>tcortes72@gmail.com</t>
   </si>
   <si>
+    <t>marove74@hotmail.com</t>
+  </si>
+  <si>
     <t>deliarosas7718@gmail.com</t>
   </si>
   <si>
@@ -896,12 +1106,6 @@
     <t>2721753370</t>
   </si>
   <si>
-    <t>2722351016</t>
-  </si>
-  <si>
-    <t>2721733068</t>
-  </si>
-  <si>
     <t>2722145647</t>
   </si>
   <si>
@@ -911,28 +1115,25 @@
     <t>2721323765</t>
   </si>
   <si>
-    <t>2722170013</t>
-  </si>
-  <si>
     <t>2721072224</t>
   </si>
   <si>
+    <t>8711885884</t>
+  </si>
+  <si>
     <t>2722802790</t>
   </si>
   <si>
     <t>2722980805</t>
   </si>
   <si>
-    <t>2722808116</t>
-  </si>
-  <si>
     <t>2727263931</t>
   </si>
   <si>
     <t>2721541486</t>
   </si>
   <si>
-    <t>2721882932</t>
+    <t>2721385183</t>
   </si>
   <si>
     <t>2721926023</t>
@@ -1190,7 +1391,7 @@
     <t>2726892718</t>
   </si>
   <si>
-    <t>52272200000000000</t>
+    <t>5.22722e+16</t>
   </si>
   <si>
     <t>2727211100</t>
@@ -1208,7 +1409,7 @@
     <t>2721108745</t>
   </si>
   <si>
-    <t>27272100000000000</t>
+    <t>2.72721e+16</t>
   </si>
   <si>
     <t>2722111714</t>
@@ -1283,7 +1484,10 @@
     <t>jose_luisbr@hotmail.com</t>
   </si>
   <si>
-    <t>maberamirezramirez@gmail.com</t>
+    <t>Marchate1986@gmail.com</t>
+  </si>
+  <si>
+    <t>jdcastro@gmail.com</t>
   </si>
   <si>
     <t>luis.kaztello@gmail.com</t>
@@ -1328,6 +1532,9 @@
     <t>banda4203@hotmail.com</t>
   </si>
   <si>
+    <t>oficialsanchezmz@gmail.com</t>
+  </si>
+  <si>
     <t>fernandagonzales2267@gmail.com</t>
   </si>
   <si>
@@ -1538,7 +1745,7 @@
     <t>marcosflow285@gmail.com</t>
   </si>
   <si>
-    <t>jesussamuelgarcialeon96@gmail.com</t>
+    <t>erikaleonpalacios7@gmail.com</t>
   </si>
   <si>
     <t>roger123459876@gmail.com</t>
@@ -1685,7 +1892,7 @@
     <t>MIGUEL ÁNGEL RAMÍREZ MORENO</t>
   </si>
   <si>
-    <t>GUADALUPE ITSEL TEPEPA ROSAS</t>
+    <t>GUADALUPE ITZEL TEPEPA ROSAS</t>
   </si>
   <si>
     <t>JUAN MANUEL CANTELLAN CARRERA</t>
@@ -1718,7 +1925,7 @@
     <t>KARINA BAEZA HERNÁNDEZ</t>
   </si>
   <si>
-    <t>MIRIAM MOLINA MORALES MOLINA MORALES</t>
+    <t>MIRIAM MOLINA MORALES</t>
   </si>
   <si>
     <t>ANTONIA ROCIO RODRÍGUEZ SANCHEZ</t>
@@ -1787,6 +1994,9 @@
     <t>manuel.flomat@hotmail.com</t>
   </si>
   <si>
+    <t>Kelly_rivera_vargas@gmail.com</t>
+  </si>
+  <si>
     <t>jesus_ramirez_flores@outlook.com</t>
   </si>
   <si>
@@ -2156,7 +2366,7 @@
     <t>misaelxotlanihua@gmail.com</t>
   </si>
   <si>
-    <t>hersonlive@outlook.es</t>
+    <t>hersonxolio@gmail.com</t>
   </si>
   <si>
     <t>joeldeneyhernandez@gmail.com</t>
@@ -2282,9 +2492,6 @@
     <t>2727428423</t>
   </si>
   <si>
-    <t>2717130876</t>
-  </si>
-  <si>
     <t>2722143636</t>
   </si>
   <si>
@@ -2369,6 +2576,9 @@
     <t>ANTONIO PACHECO APARICIO</t>
   </si>
   <si>
+    <t>BARSIMEO ISMAEL PAZ CESAR</t>
+  </si>
+  <si>
     <t>EDGAR ENRIQUE PATIÑO GARCÍA</t>
   </si>
   <si>
@@ -2399,6 +2609,9 @@
     <t>ISMAEL XOTLANIHUA REYES</t>
   </si>
   <si>
+    <t>ALVARO ELIAS XOLIO LINARES</t>
+  </si>
+  <si>
     <t>ELODIA XOTLANIHUA GUTIÉRREZ</t>
   </si>
   <si>
@@ -2498,7 +2711,7 @@
     <t>2721899640</t>
   </si>
   <si>
-    <t>52614500000000000</t>
+    <t>5.26145e+16</t>
   </si>
   <si>
     <t>2291159611</t>
@@ -2517,9 +2730,6 @@
   </si>
   <si>
     <t>2722240286</t>
-  </si>
-  <si>
-    <t>8711885884</t>
   </si>
   <si>
     <t>2721328913</t>
@@ -2979,6 +3189,15 @@
       <c r="G2" t="s">
         <v>143</v>
       </c>
+      <c r="H2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J2" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
@@ -3002,6 +3221,12 @@
       <c r="G3" t="s">
         <v>144</v>
       </c>
+      <c r="H3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
@@ -3022,6 +3247,15 @@
       <c r="F4" t="s">
         <v>117</v>
       </c>
+      <c r="H4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J4" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
@@ -3045,6 +3279,15 @@
       <c r="G5" t="s">
         <v>145</v>
       </c>
+      <c r="H5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" t="s">
+        <v>187</v>
+      </c>
+      <c r="J5" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
@@ -3065,6 +3308,15 @@
       <c r="F6" t="s">
         <v>119</v>
       </c>
+      <c r="H6" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" t="s">
+        <v>188</v>
+      </c>
+      <c r="J6" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
@@ -3088,6 +3340,15 @@
       <c r="G7" t="s">
         <v>146</v>
       </c>
+      <c r="H7" t="s">
+        <v>162</v>
+      </c>
+      <c r="I7" t="s">
+        <v>189</v>
+      </c>
+      <c r="J7" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
@@ -3108,6 +3369,15 @@
       <c r="F8" t="s">
         <v>121</v>
       </c>
+      <c r="H8" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
@@ -3128,6 +3398,12 @@
       <c r="G9" t="s">
         <v>147</v>
       </c>
+      <c r="H9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J9" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
@@ -3151,6 +3427,12 @@
       <c r="G10" t="s">
         <v>148</v>
       </c>
+      <c r="H10" t="s">
+        <v>165</v>
+      </c>
+      <c r="J10" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
@@ -3171,6 +3453,15 @@
       <c r="F11" t="s">
         <v>123</v>
       </c>
+      <c r="H11" t="s">
+        <v>166</v>
+      </c>
+      <c r="I11" t="s">
+        <v>191</v>
+      </c>
+      <c r="J11" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
@@ -3194,6 +3485,12 @@
       <c r="G12" t="s">
         <v>149</v>
       </c>
+      <c r="H12" t="s">
+        <v>167</v>
+      </c>
+      <c r="J12" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
@@ -3217,6 +3514,15 @@
       <c r="G13" t="s">
         <v>150</v>
       </c>
+      <c r="H13" t="s">
+        <v>168</v>
+      </c>
+      <c r="I13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
@@ -3238,13 +3544,13 @@
         <v>126</v>
       </c>
       <c r="H14" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="I14" t="s">
-        <v>158</v>
+        <v>192</v>
       </c>
       <c r="J14" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3269,6 +3575,15 @@
       <c r="G15" t="s">
         <v>127</v>
       </c>
+      <c r="H15" t="s">
+        <v>170</v>
+      </c>
+      <c r="I15" t="s">
+        <v>193</v>
+      </c>
+      <c r="J15" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
@@ -3292,8 +3607,17 @@
       <c r="G16" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" t="s">
+        <v>171</v>
+      </c>
+      <c r="I16" t="s">
+        <v>194</v>
+      </c>
+      <c r="J16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>21330051920124</v>
       </c>
@@ -3315,8 +3639,17 @@
       <c r="G17" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" t="s">
+        <v>172</v>
+      </c>
+      <c r="I17" t="s">
+        <v>195</v>
+      </c>
+      <c r="J17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>21330051920125</v>
       </c>
@@ -3338,8 +3671,17 @@
       <c r="G18" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" t="s">
+        <v>173</v>
+      </c>
+      <c r="I18" t="s">
+        <v>196</v>
+      </c>
+      <c r="J18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>21330051920126</v>
       </c>
@@ -3361,8 +3703,17 @@
       <c r="G19" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" t="s">
+        <v>174</v>
+      </c>
+      <c r="I19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>21330051920127</v>
       </c>
@@ -3384,8 +3735,17 @@
       <c r="G20" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" t="s">
+        <v>175</v>
+      </c>
+      <c r="I20" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20330051920275</v>
       </c>
@@ -3404,8 +3764,17 @@
       <c r="F21" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" t="s">
+        <v>176</v>
+      </c>
+      <c r="I21" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>21330051920128</v>
       </c>
@@ -3427,8 +3796,17 @@
       <c r="G22" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" t="s">
+        <v>177</v>
+      </c>
+      <c r="I22" t="s">
+        <v>198</v>
+      </c>
+      <c r="J22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>21330051920129</v>
       </c>
@@ -3447,8 +3825,17 @@
       <c r="G23" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" t="s">
+        <v>178</v>
+      </c>
+      <c r="I23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>21330051920130</v>
       </c>
@@ -3467,8 +3854,17 @@
       <c r="F24" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" t="s">
+        <v>179</v>
+      </c>
+      <c r="I24" t="s">
+        <v>108</v>
+      </c>
+      <c r="J24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>21330051920131</v>
       </c>
@@ -3490,8 +3886,17 @@
       <c r="G25" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" t="s">
+        <v>180</v>
+      </c>
+      <c r="I25" t="s">
+        <v>200</v>
+      </c>
+      <c r="J25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>18330051920377</v>
       </c>
@@ -3513,8 +3918,17 @@
       <c r="G26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" t="s">
+        <v>181</v>
+      </c>
+      <c r="I26" t="s">
+        <v>201</v>
+      </c>
+      <c r="J26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>21330051920132</v>
       </c>
@@ -3533,8 +3947,17 @@
       <c r="F27" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" t="s">
+        <v>182</v>
+      </c>
+      <c r="I27" t="s">
+        <v>202</v>
+      </c>
+      <c r="J27" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>20330051920152</v>
       </c>
@@ -3553,8 +3976,17 @@
       <c r="F28" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" t="s">
+        <v>183</v>
+      </c>
+      <c r="I28" t="s">
+        <v>203</v>
+      </c>
+      <c r="J28" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>21330051920133</v>
       </c>
@@ -3576,8 +4008,17 @@
       <c r="G29" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" t="s">
+        <v>184</v>
+      </c>
+      <c r="I29" t="s">
+        <v>204</v>
+      </c>
+      <c r="J29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>21330051920134</v>
       </c>
@@ -3595,6 +4036,15 @@
       </c>
       <c r="F30" t="s">
         <v>142</v>
+      </c>
+      <c r="H30" t="s">
+        <v>185</v>
+      </c>
+      <c r="I30" t="s">
+        <v>205</v>
+      </c>
+      <c r="J30" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3656,31 +4106,31 @@
         <v>21330051920135</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="C2" t="s">
         <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>247</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="F2" t="s">
-        <v>223</v>
+        <v>289</v>
       </c>
       <c r="G2" t="s">
-        <v>243</v>
+        <v>309</v>
       </c>
       <c r="H2" t="s">
-        <v>256</v>
+        <v>322</v>
       </c>
       <c r="I2" t="s">
-        <v>275</v>
+        <v>343</v>
       </c>
       <c r="J2" t="s">
-        <v>289</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3691,25 +4141,25 @@
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>269</v>
       </c>
       <c r="F3" t="s">
-        <v>224</v>
+        <v>290</v>
       </c>
       <c r="G3" t="s">
-        <v>244</v>
+        <v>310</v>
       </c>
       <c r="H3" t="s">
-        <v>257</v>
+        <v>323</v>
       </c>
       <c r="J3" t="s">
-        <v>290</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3717,31 +4167,31 @@
         <v>21330051920137</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
       <c r="F4" t="s">
-        <v>225</v>
+        <v>291</v>
       </c>
       <c r="G4" t="s">
-        <v>245</v>
+        <v>311</v>
       </c>
       <c r="H4" t="s">
-        <v>258</v>
+        <v>324</v>
       </c>
       <c r="I4" t="s">
-        <v>276</v>
+        <v>344</v>
       </c>
       <c r="J4" t="s">
-        <v>291</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3749,25 +4199,25 @@
         <v>21330051920138</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="E5" t="s">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c r="F5" t="s">
-        <v>226</v>
+        <v>292</v>
       </c>
       <c r="H5" t="s">
-        <v>259</v>
+        <v>325</v>
       </c>
       <c r="I5" t="s">
-        <v>205</v>
+        <v>271</v>
       </c>
       <c r="J5" t="s">
         <v>292</v>
@@ -3781,22 +4231,22 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
       <c r="G6" t="s">
-        <v>246</v>
+        <v>312</v>
       </c>
       <c r="H6" t="s">
-        <v>260</v>
+        <v>326</v>
       </c>
       <c r="J6" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3804,31 +4254,31 @@
         <v>21330051920140</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="F7" t="s">
-        <v>227</v>
+        <v>293</v>
       </c>
       <c r="G7" t="s">
-        <v>247</v>
+        <v>313</v>
       </c>
       <c r="H7" t="s">
-        <v>261</v>
+        <v>327</v>
       </c>
       <c r="I7" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
       <c r="J7" t="s">
-        <v>294</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3839,28 +4289,28 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>253</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="F8" t="s">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="G8" t="s">
-        <v>248</v>
+        <v>314</v>
       </c>
       <c r="H8" t="s">
-        <v>262</v>
+        <v>328</v>
       </c>
       <c r="I8" t="s">
-        <v>278</v>
+        <v>346</v>
       </c>
       <c r="J8" t="s">
-        <v>295</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3871,28 +4321,28 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>254</v>
       </c>
       <c r="E9" t="s">
-        <v>209</v>
+        <v>275</v>
       </c>
       <c r="F9" t="s">
-        <v>229</v>
+        <v>295</v>
       </c>
       <c r="G9" t="s">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c r="H9" t="s">
-        <v>263</v>
+        <v>329</v>
       </c>
       <c r="I9" t="s">
-        <v>279</v>
+        <v>347</v>
       </c>
       <c r="J9" t="s">
-        <v>296</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3903,28 +4353,28 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>255</v>
       </c>
       <c r="E10" t="s">
-        <v>210</v>
+        <v>276</v>
       </c>
       <c r="F10" t="s">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="G10" t="s">
-        <v>250</v>
+        <v>316</v>
       </c>
       <c r="H10" t="s">
-        <v>264</v>
+        <v>330</v>
       </c>
       <c r="I10" t="s">
-        <v>280</v>
+        <v>348</v>
       </c>
       <c r="J10" t="s">
-        <v>230</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3932,22 +4382,31 @@
         <v>21330051920381</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="C11" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="D11" t="s">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="E11" t="s">
-        <v>211</v>
+        <v>277</v>
       </c>
       <c r="F11" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="G11" t="s">
-        <v>231</v>
+        <v>297</v>
+      </c>
+      <c r="H11" t="s">
+        <v>331</v>
+      </c>
+      <c r="I11" t="s">
+        <v>349</v>
+      </c>
+      <c r="J11" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3955,31 +4414,31 @@
         <v>21330051920144</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="D12" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="E12" t="s">
-        <v>212</v>
+        <v>278</v>
       </c>
       <c r="F12" t="s">
-        <v>232</v>
+        <v>298</v>
       </c>
       <c r="G12" t="s">
-        <v>251</v>
+        <v>317</v>
       </c>
       <c r="H12" t="s">
-        <v>265</v>
+        <v>332</v>
       </c>
       <c r="I12" t="s">
-        <v>281</v>
+        <v>350</v>
       </c>
       <c r="J12" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3987,28 +4446,28 @@
         <v>21330051920145</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="E13" t="s">
-        <v>213</v>
+        <v>279</v>
       </c>
       <c r="F13" t="s">
-        <v>233</v>
+        <v>299</v>
       </c>
       <c r="H13" t="s">
-        <v>266</v>
+        <v>333</v>
       </c>
       <c r="I13" t="s">
-        <v>282</v>
+        <v>351</v>
       </c>
       <c r="J13" t="s">
-        <v>298</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4016,19 +4475,28 @@
         <v>21330051920384</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="C14" t="s">
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c r="E14" t="s">
-        <v>214</v>
+        <v>280</v>
       </c>
       <c r="F14" t="s">
-        <v>234</v>
+        <v>300</v>
+      </c>
+      <c r="H14" t="s">
+        <v>334</v>
+      </c>
+      <c r="I14" t="s">
+        <v>352</v>
+      </c>
+      <c r="J14" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4039,28 +4507,28 @@
         <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="D15" t="s">
-        <v>194</v>
+        <v>260</v>
       </c>
       <c r="E15" t="s">
-        <v>215</v>
+        <v>281</v>
       </c>
       <c r="F15" t="s">
-        <v>235</v>
+        <v>301</v>
       </c>
       <c r="G15" t="s">
-        <v>252</v>
+        <v>318</v>
       </c>
       <c r="H15" t="s">
-        <v>267</v>
+        <v>335</v>
       </c>
       <c r="I15" t="s">
-        <v>283</v>
+        <v>353</v>
       </c>
       <c r="J15" t="s">
-        <v>299</v>
+        <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4068,28 +4536,28 @@
         <v>21330051920395</v>
       </c>
       <c r="B16" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="E16" t="s">
-        <v>216</v>
+        <v>282</v>
       </c>
       <c r="F16" t="s">
-        <v>236</v>
+        <v>302</v>
       </c>
       <c r="H16" t="s">
-        <v>268</v>
+        <v>336</v>
       </c>
       <c r="I16" t="s">
-        <v>284</v>
+        <v>354</v>
       </c>
       <c r="J16" t="s">
-        <v>300</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4103,22 +4571,22 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="E17" t="s">
-        <v>217</v>
+        <v>283</v>
       </c>
       <c r="F17" t="s">
-        <v>237</v>
+        <v>303</v>
       </c>
       <c r="H17" t="s">
-        <v>269</v>
+        <v>337</v>
       </c>
       <c r="I17" t="s">
-        <v>285</v>
+        <v>355</v>
       </c>
       <c r="J17" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4129,25 +4597,25 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>180</v>
+        <v>246</v>
       </c>
       <c r="D18" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="E18" t="s">
-        <v>218</v>
+        <v>284</v>
       </c>
       <c r="F18" t="s">
-        <v>238</v>
+        <v>304</v>
       </c>
       <c r="G18" t="s">
-        <v>253</v>
+        <v>319</v>
       </c>
       <c r="H18" t="s">
-        <v>270</v>
+        <v>338</v>
       </c>
       <c r="J18" t="s">
-        <v>302</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4161,22 +4629,22 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="E19" t="s">
-        <v>219</v>
+        <v>285</v>
       </c>
       <c r="F19" t="s">
-        <v>239</v>
+        <v>305</v>
       </c>
       <c r="G19" t="s">
-        <v>254</v>
+        <v>320</v>
       </c>
       <c r="H19" t="s">
-        <v>271</v>
+        <v>339</v>
       </c>
       <c r="J19" t="s">
-        <v>303</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4187,25 +4655,25 @@
         <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="D20" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="E20" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
       <c r="F20" t="s">
-        <v>240</v>
+        <v>306</v>
       </c>
       <c r="H20" t="s">
-        <v>272</v>
+        <v>340</v>
       </c>
       <c r="I20" t="s">
-        <v>286</v>
+        <v>356</v>
       </c>
       <c r="J20" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4213,25 +4681,28 @@
         <v>21330051920382</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
       </c>
       <c r="D21" t="s">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="E21" t="s">
-        <v>221</v>
+        <v>287</v>
       </c>
       <c r="F21" t="s">
-        <v>241</v>
+        <v>307</v>
       </c>
       <c r="H21" t="s">
-        <v>273</v>
+        <v>341</v>
       </c>
       <c r="I21" t="s">
-        <v>287</v>
+        <v>357</v>
+      </c>
+      <c r="J21" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4239,31 +4710,31 @@
         <v>21330051920392</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="E22" t="s">
-        <v>222</v>
+        <v>288</v>
       </c>
       <c r="F22" t="s">
-        <v>242</v>
+        <v>308</v>
       </c>
       <c r="G22" t="s">
-        <v>255</v>
+        <v>321</v>
       </c>
       <c r="H22" t="s">
-        <v>274</v>
+        <v>342</v>
       </c>
       <c r="I22" t="s">
-        <v>288</v>
+        <v>358</v>
       </c>
       <c r="J22" t="s">
-        <v>305</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -4325,31 +4796,31 @@
         <v>20330051920260</v>
       </c>
       <c r="B2" t="s">
-        <v>306</v>
+        <v>373</v>
       </c>
       <c r="C2" t="s">
-        <v>317</v>
+        <v>384</v>
       </c>
       <c r="D2" t="s">
-        <v>324</v>
+        <v>391</v>
       </c>
       <c r="E2" t="s">
-        <v>345</v>
+        <v>412</v>
       </c>
       <c r="F2" t="s">
-        <v>366</v>
+        <v>433</v>
       </c>
       <c r="G2" t="s">
-        <v>387</v>
+        <v>454</v>
       </c>
       <c r="H2" t="s">
-        <v>399</v>
+        <v>466</v>
       </c>
       <c r="I2" t="s">
-        <v>420</v>
+        <v>487</v>
       </c>
       <c r="J2" t="s">
-        <v>437</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4357,28 +4828,31 @@
         <v>20330051920261</v>
       </c>
       <c r="B3" t="s">
-        <v>307</v>
+        <v>374</v>
       </c>
       <c r="C3" t="s">
-        <v>318</v>
+        <v>385</v>
       </c>
       <c r="D3" t="s">
-        <v>325</v>
+        <v>392</v>
       </c>
       <c r="E3" t="s">
-        <v>346</v>
+        <v>413</v>
       </c>
       <c r="F3" t="s">
-        <v>367</v>
+        <v>434</v>
       </c>
       <c r="G3" t="s">
-        <v>388</v>
+        <v>455</v>
       </c>
       <c r="H3" t="s">
-        <v>400</v>
+        <v>467</v>
+      </c>
+      <c r="I3" t="s">
+        <v>488</v>
       </c>
       <c r="J3" t="s">
-        <v>388</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4392,25 +4866,25 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>326</v>
+        <v>393</v>
       </c>
       <c r="E4" t="s">
-        <v>347</v>
+        <v>414</v>
       </c>
       <c r="F4" t="s">
-        <v>368</v>
+        <v>435</v>
       </c>
       <c r="G4" t="s">
-        <v>389</v>
+        <v>456</v>
       </c>
       <c r="H4" t="s">
-        <v>401</v>
+        <v>468</v>
       </c>
       <c r="I4" t="s">
-        <v>421</v>
+        <v>489</v>
       </c>
       <c r="J4" t="s">
-        <v>438</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4418,31 +4892,31 @@
         <v>20330051920262</v>
       </c>
       <c r="B5" t="s">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>327</v>
+        <v>394</v>
       </c>
       <c r="E5" t="s">
-        <v>348</v>
+        <v>415</v>
       </c>
       <c r="F5" t="s">
-        <v>369</v>
+        <v>436</v>
       </c>
       <c r="G5" t="s">
-        <v>390</v>
+        <v>457</v>
       </c>
       <c r="H5" t="s">
-        <v>402</v>
+        <v>469</v>
       </c>
       <c r="I5" t="s">
-        <v>422</v>
+        <v>490</v>
       </c>
       <c r="J5" t="s">
-        <v>439</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4450,31 +4924,31 @@
         <v>20330051920264</v>
       </c>
       <c r="B6" t="s">
-        <v>309</v>
+        <v>376</v>
       </c>
       <c r="C6" t="s">
         <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>328</v>
+        <v>395</v>
       </c>
       <c r="E6" t="s">
-        <v>349</v>
+        <v>416</v>
       </c>
       <c r="F6" t="s">
-        <v>370</v>
+        <v>437</v>
       </c>
       <c r="G6" t="s">
-        <v>370</v>
+        <v>437</v>
       </c>
       <c r="H6" t="s">
-        <v>403</v>
+        <v>470</v>
       </c>
       <c r="I6" t="s">
-        <v>423</v>
+        <v>491</v>
       </c>
       <c r="J6" t="s">
-        <v>440</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4485,28 +4959,28 @@
         <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>319</v>
+        <v>386</v>
       </c>
       <c r="D7" t="s">
-        <v>329</v>
+        <v>396</v>
       </c>
       <c r="E7" t="s">
-        <v>350</v>
+        <v>417</v>
       </c>
       <c r="F7" t="s">
-        <v>371</v>
+        <v>438</v>
       </c>
       <c r="G7" t="s">
-        <v>371</v>
+        <v>438</v>
       </c>
       <c r="H7" t="s">
-        <v>404</v>
+        <v>471</v>
       </c>
       <c r="I7" t="s">
-        <v>424</v>
+        <v>492</v>
       </c>
       <c r="J7" t="s">
-        <v>441</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4520,25 +4994,25 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>330</v>
+        <v>397</v>
       </c>
       <c r="E8" t="s">
-        <v>351</v>
+        <v>418</v>
       </c>
       <c r="F8" t="s">
-        <v>372</v>
+        <v>439</v>
       </c>
       <c r="G8" t="s">
-        <v>391</v>
+        <v>458</v>
       </c>
       <c r="H8" t="s">
-        <v>405</v>
+        <v>472</v>
       </c>
       <c r="I8" t="s">
-        <v>425</v>
+        <v>493</v>
       </c>
       <c r="J8" t="s">
-        <v>442</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4546,28 +5020,28 @@
         <v>20330051920269</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="C9" t="s">
         <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>331</v>
+        <v>398</v>
       </c>
       <c r="E9" t="s">
-        <v>352</v>
+        <v>419</v>
       </c>
       <c r="F9" t="s">
-        <v>373</v>
+        <v>440</v>
       </c>
       <c r="H9" t="s">
-        <v>406</v>
+        <v>473</v>
       </c>
       <c r="I9" t="s">
-        <v>426</v>
+        <v>494</v>
       </c>
       <c r="J9" t="s">
-        <v>443</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4578,28 +5052,28 @@
         <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>320</v>
+        <v>387</v>
       </c>
       <c r="D10" t="s">
-        <v>332</v>
+        <v>399</v>
       </c>
       <c r="E10" t="s">
-        <v>353</v>
+        <v>420</v>
       </c>
       <c r="F10" t="s">
-        <v>374</v>
+        <v>441</v>
       </c>
       <c r="G10" t="s">
-        <v>392</v>
+        <v>459</v>
       </c>
       <c r="H10" t="s">
-        <v>407</v>
+        <v>474</v>
       </c>
       <c r="I10" t="s">
-        <v>427</v>
+        <v>495</v>
       </c>
       <c r="J10" t="s">
-        <v>444</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4610,25 +5084,25 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>321</v>
+        <v>388</v>
       </c>
       <c r="D11" t="s">
-        <v>333</v>
+        <v>400</v>
       </c>
       <c r="E11" t="s">
-        <v>354</v>
+        <v>421</v>
       </c>
       <c r="F11" t="s">
-        <v>375</v>
+        <v>442</v>
       </c>
       <c r="H11" t="s">
-        <v>408</v>
+        <v>475</v>
       </c>
       <c r="I11" t="s">
-        <v>428</v>
+        <v>496</v>
       </c>
       <c r="J11" t="s">
-        <v>445</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4639,25 +5113,25 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>313</v>
+        <v>380</v>
       </c>
       <c r="D12" t="s">
-        <v>334</v>
+        <v>401</v>
       </c>
       <c r="E12" t="s">
-        <v>355</v>
+        <v>422</v>
       </c>
       <c r="F12" t="s">
-        <v>376</v>
+        <v>443</v>
       </c>
       <c r="H12" t="s">
-        <v>409</v>
+        <v>476</v>
       </c>
       <c r="I12" t="s">
-        <v>429</v>
+        <v>497</v>
       </c>
       <c r="J12" t="s">
-        <v>446</v>
+        <v>515</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4665,28 +5139,28 @@
         <v>19220030050208</v>
       </c>
       <c r="B13" t="s">
-        <v>310</v>
+        <v>377</v>
       </c>
       <c r="C13" t="s">
-        <v>322</v>
+        <v>389</v>
       </c>
       <c r="D13" t="s">
-        <v>335</v>
+        <v>402</v>
       </c>
       <c r="E13" t="s">
-        <v>356</v>
+        <v>423</v>
       </c>
       <c r="F13" t="s">
-        <v>377</v>
+        <v>444</v>
       </c>
       <c r="G13" t="s">
-        <v>393</v>
+        <v>460</v>
       </c>
       <c r="H13" t="s">
-        <v>410</v>
+        <v>477</v>
       </c>
       <c r="I13" t="s">
-        <v>430</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4700,25 +5174,25 @@
         <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>336</v>
+        <v>403</v>
       </c>
       <c r="E14" t="s">
-        <v>357</v>
+        <v>424</v>
       </c>
       <c r="F14" t="s">
-        <v>378</v>
+        <v>445</v>
       </c>
       <c r="G14" t="s">
-        <v>394</v>
+        <v>461</v>
       </c>
       <c r="H14" t="s">
-        <v>411</v>
+        <v>478</v>
       </c>
       <c r="I14" t="s">
-        <v>431</v>
+        <v>499</v>
       </c>
       <c r="J14" t="s">
-        <v>447</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4732,22 +5206,22 @@
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>337</v>
+        <v>404</v>
       </c>
       <c r="E15" t="s">
-        <v>358</v>
+        <v>425</v>
       </c>
       <c r="F15" t="s">
-        <v>379</v>
+        <v>446</v>
       </c>
       <c r="H15" t="s">
-        <v>412</v>
+        <v>479</v>
       </c>
       <c r="I15" t="s">
-        <v>432</v>
+        <v>500</v>
       </c>
       <c r="J15" t="s">
-        <v>448</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4755,31 +5229,31 @@
         <v>20330051920276</v>
       </c>
       <c r="B16" t="s">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="C16" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="D16" t="s">
-        <v>338</v>
+        <v>405</v>
       </c>
       <c r="E16" t="s">
-        <v>359</v>
+        <v>426</v>
       </c>
       <c r="F16" t="s">
-        <v>380</v>
+        <v>447</v>
       </c>
       <c r="G16" t="s">
-        <v>395</v>
+        <v>462</v>
       </c>
       <c r="H16" t="s">
-        <v>413</v>
+        <v>480</v>
       </c>
       <c r="I16" t="s">
-        <v>433</v>
+        <v>501</v>
       </c>
       <c r="J16" t="s">
-        <v>449</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4787,28 +5261,28 @@
         <v>19330051920238</v>
       </c>
       <c r="B17" t="s">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="D17" t="s">
-        <v>339</v>
+        <v>406</v>
       </c>
       <c r="E17" t="s">
-        <v>360</v>
+        <v>427</v>
       </c>
       <c r="F17" t="s">
-        <v>381</v>
+        <v>448</v>
       </c>
       <c r="H17" t="s">
-        <v>414</v>
+        <v>481</v>
       </c>
       <c r="I17" t="s">
-        <v>360</v>
+        <v>427</v>
       </c>
       <c r="J17" t="s">
-        <v>450</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4822,25 +5296,25 @@
         <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>340</v>
+        <v>407</v>
       </c>
       <c r="E18" t="s">
-        <v>361</v>
+        <v>428</v>
       </c>
       <c r="F18" t="s">
-        <v>382</v>
+        <v>449</v>
       </c>
       <c r="G18" t="s">
-        <v>396</v>
+        <v>463</v>
       </c>
       <c r="H18" t="s">
-        <v>415</v>
+        <v>482</v>
       </c>
       <c r="I18" t="s">
-        <v>434</v>
+        <v>502</v>
       </c>
       <c r="J18" t="s">
-        <v>451</v>
+        <v>520</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4848,31 +5322,31 @@
         <v>20330051920279</v>
       </c>
       <c r="B19" t="s">
-        <v>313</v>
+        <v>380</v>
       </c>
       <c r="C19" t="s">
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>341</v>
+        <v>408</v>
       </c>
       <c r="E19" t="s">
-        <v>362</v>
+        <v>429</v>
       </c>
       <c r="F19" t="s">
-        <v>383</v>
+        <v>450</v>
       </c>
       <c r="G19" t="s">
-        <v>397</v>
+        <v>464</v>
       </c>
       <c r="H19" t="s">
-        <v>416</v>
+        <v>483</v>
       </c>
       <c r="I19" t="s">
-        <v>435</v>
+        <v>503</v>
       </c>
       <c r="J19" t="s">
-        <v>452</v>
+        <v>521</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -4880,28 +5354,31 @@
         <v>20330051920281</v>
       </c>
       <c r="B20" t="s">
-        <v>314</v>
+        <v>381</v>
       </c>
       <c r="C20" t="s">
-        <v>323</v>
+        <v>390</v>
       </c>
       <c r="D20" t="s">
-        <v>342</v>
+        <v>409</v>
       </c>
       <c r="E20" t="s">
-        <v>363</v>
+        <v>430</v>
       </c>
       <c r="F20" t="s">
-        <v>384</v>
+        <v>451</v>
       </c>
       <c r="G20" t="s">
-        <v>384</v>
+        <v>451</v>
       </c>
       <c r="H20" t="s">
-        <v>417</v>
+        <v>484</v>
+      </c>
+      <c r="I20" t="s">
+        <v>504</v>
       </c>
       <c r="J20" t="s">
-        <v>453</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -4909,28 +5386,28 @@
         <v>20330051920282</v>
       </c>
       <c r="B21" t="s">
-        <v>315</v>
+        <v>382</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>343</v>
+        <v>410</v>
       </c>
       <c r="E21" t="s">
-        <v>364</v>
+        <v>431</v>
       </c>
       <c r="F21" t="s">
-        <v>385</v>
+        <v>452</v>
       </c>
       <c r="H21" t="s">
-        <v>418</v>
+        <v>485</v>
       </c>
       <c r="I21" t="s">
-        <v>436</v>
+        <v>505</v>
       </c>
       <c r="J21" t="s">
-        <v>454</v>
+        <v>523</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4938,25 +5415,25 @@
         <v>19330051920425</v>
       </c>
       <c r="B22" t="s">
-        <v>316</v>
+        <v>383</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>344</v>
+        <v>411</v>
       </c>
       <c r="E22" t="s">
-        <v>365</v>
+        <v>432</v>
       </c>
       <c r="F22" t="s">
-        <v>386</v>
+        <v>453</v>
       </c>
       <c r="G22" t="s">
-        <v>398</v>
+        <v>465</v>
       </c>
       <c r="H22" t="s">
-        <v>419</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
@@ -5018,25 +5495,25 @@
         <v>20330051920317</v>
       </c>
       <c r="B2" t="s">
-        <v>455</v>
+        <v>524</v>
       </c>
       <c r="C2" t="s">
-        <v>469</v>
+        <v>538</v>
       </c>
       <c r="D2" t="s">
-        <v>480</v>
+        <v>549</v>
       </c>
       <c r="E2" t="s">
-        <v>500</v>
+        <v>569</v>
       </c>
       <c r="H2" t="s">
-        <v>553</v>
+        <v>622</v>
       </c>
       <c r="I2" t="s">
-        <v>575</v>
+        <v>644</v>
       </c>
       <c r="J2" t="s">
-        <v>592</v>
+        <v>662</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5044,31 +5521,31 @@
         <v>20330051920318</v>
       </c>
       <c r="B3" t="s">
-        <v>456</v>
+        <v>525</v>
       </c>
       <c r="C3" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
       <c r="D3" t="s">
-        <v>481</v>
+        <v>550</v>
       </c>
       <c r="E3" t="s">
-        <v>501</v>
+        <v>570</v>
       </c>
       <c r="F3" t="s">
-        <v>522</v>
+        <v>591</v>
       </c>
       <c r="G3" t="s">
-        <v>543</v>
+        <v>612</v>
       </c>
       <c r="H3" t="s">
-        <v>554</v>
+        <v>623</v>
       </c>
       <c r="I3" t="s">
-        <v>576</v>
+        <v>645</v>
       </c>
       <c r="J3" t="s">
-        <v>593</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5076,28 +5553,28 @@
         <v>20330050470026</v>
       </c>
       <c r="B4" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
       <c r="C4" t="s">
-        <v>471</v>
+        <v>540</v>
       </c>
       <c r="D4" t="s">
-        <v>482</v>
+        <v>551</v>
       </c>
       <c r="E4" t="s">
-        <v>502</v>
+        <v>571</v>
       </c>
       <c r="F4" t="s">
-        <v>523</v>
+        <v>592</v>
       </c>
       <c r="H4" t="s">
-        <v>555</v>
+        <v>624</v>
       </c>
       <c r="I4" t="s">
-        <v>577</v>
+        <v>646</v>
       </c>
       <c r="J4" t="s">
-        <v>594</v>
+        <v>664</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5105,28 +5582,28 @@
         <v>20330051920320</v>
       </c>
       <c r="B5" t="s">
-        <v>458</v>
+        <v>527</v>
       </c>
       <c r="C5" t="s">
-        <v>472</v>
+        <v>541</v>
       </c>
       <c r="D5" t="s">
-        <v>483</v>
+        <v>552</v>
       </c>
       <c r="E5" t="s">
-        <v>503</v>
+        <v>572</v>
       </c>
       <c r="F5" t="s">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="H5" t="s">
-        <v>556</v>
+        <v>625</v>
       </c>
       <c r="I5" t="s">
-        <v>578</v>
+        <v>647</v>
       </c>
       <c r="J5" t="s">
-        <v>595</v>
+        <v>665</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5134,25 +5611,25 @@
         <v>20330051920321</v>
       </c>
       <c r="B6" t="s">
-        <v>459</v>
+        <v>528</v>
       </c>
       <c r="C6" t="s">
-        <v>473</v>
+        <v>542</v>
       </c>
       <c r="D6" t="s">
-        <v>484</v>
+        <v>553</v>
       </c>
       <c r="E6" t="s">
-        <v>504</v>
+        <v>573</v>
       </c>
       <c r="F6" t="s">
-        <v>525</v>
+        <v>594</v>
       </c>
       <c r="G6" t="s">
-        <v>525</v>
+        <v>594</v>
       </c>
       <c r="H6" t="s">
-        <v>557</v>
+        <v>626</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5166,25 +5643,25 @@
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>485</v>
+        <v>554</v>
       </c>
       <c r="E7" t="s">
-        <v>505</v>
+        <v>574</v>
       </c>
       <c r="F7" t="s">
-        <v>526</v>
+        <v>595</v>
       </c>
       <c r="G7" t="s">
-        <v>544</v>
+        <v>613</v>
       </c>
       <c r="H7" t="s">
-        <v>558</v>
+        <v>627</v>
       </c>
       <c r="I7" t="s">
-        <v>579</v>
+        <v>648</v>
       </c>
       <c r="J7" t="s">
-        <v>596</v>
+        <v>666</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5195,28 +5672,28 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>474</v>
+        <v>543</v>
       </c>
       <c r="D8" t="s">
-        <v>486</v>
+        <v>555</v>
       </c>
       <c r="E8" t="s">
-        <v>506</v>
+        <v>575</v>
       </c>
       <c r="F8" t="s">
-        <v>527</v>
+        <v>596</v>
       </c>
       <c r="G8" t="s">
-        <v>545</v>
+        <v>614</v>
       </c>
       <c r="H8" t="s">
-        <v>559</v>
+        <v>628</v>
       </c>
       <c r="I8" t="s">
-        <v>580</v>
+        <v>649</v>
       </c>
       <c r="J8" t="s">
-        <v>597</v>
+        <v>667</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5224,28 +5701,28 @@
         <v>20330051920380</v>
       </c>
       <c r="B9" t="s">
-        <v>460</v>
+        <v>529</v>
       </c>
       <c r="C9" t="s">
-        <v>475</v>
+        <v>544</v>
       </c>
       <c r="D9" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="E9" t="s">
-        <v>507</v>
+        <v>576</v>
       </c>
       <c r="F9" t="s">
-        <v>528</v>
+        <v>597</v>
       </c>
       <c r="H9" t="s">
-        <v>560</v>
+        <v>629</v>
       </c>
       <c r="I9" t="s">
-        <v>581</v>
+        <v>650</v>
       </c>
       <c r="J9" t="s">
-        <v>598</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5259,25 +5736,25 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>487</v>
+        <v>556</v>
       </c>
       <c r="E10" t="s">
-        <v>508</v>
+        <v>577</v>
       </c>
       <c r="F10" t="s">
-        <v>529</v>
+        <v>598</v>
       </c>
       <c r="G10" t="s">
-        <v>546</v>
+        <v>615</v>
       </c>
       <c r="H10" t="s">
-        <v>561</v>
+        <v>630</v>
       </c>
       <c r="I10" t="s">
-        <v>582</v>
+        <v>651</v>
       </c>
       <c r="J10" t="s">
-        <v>599</v>
+        <v>669</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5288,28 +5765,28 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>476</v>
+        <v>545</v>
       </c>
       <c r="D11" t="s">
-        <v>488</v>
+        <v>557</v>
       </c>
       <c r="E11" t="s">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="F11" t="s">
-        <v>530</v>
+        <v>599</v>
       </c>
       <c r="G11" t="s">
-        <v>547</v>
+        <v>616</v>
       </c>
       <c r="H11" t="s">
-        <v>562</v>
+        <v>631</v>
       </c>
       <c r="I11" t="s">
-        <v>583</v>
+        <v>652</v>
       </c>
       <c r="J11" t="s">
-        <v>600</v>
+        <v>670</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5317,31 +5794,31 @@
         <v>20330051920397</v>
       </c>
       <c r="B12" t="s">
-        <v>461</v>
+        <v>530</v>
       </c>
       <c r="C12" t="s">
         <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="E12" t="s">
-        <v>510</v>
+        <v>579</v>
       </c>
       <c r="F12" t="s">
-        <v>531</v>
+        <v>600</v>
       </c>
       <c r="G12" t="s">
-        <v>548</v>
+        <v>617</v>
       </c>
       <c r="H12" t="s">
-        <v>563</v>
+        <v>632</v>
       </c>
       <c r="I12" t="s">
-        <v>510</v>
+        <v>579</v>
       </c>
       <c r="J12" t="s">
-        <v>601</v>
+        <v>671</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5352,25 +5829,25 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="D13" t="s">
-        <v>489</v>
+        <v>558</v>
       </c>
       <c r="E13" t="s">
-        <v>511</v>
+        <v>580</v>
       </c>
       <c r="F13" t="s">
-        <v>532</v>
+        <v>601</v>
       </c>
       <c r="H13" t="s">
-        <v>564</v>
+        <v>633</v>
       </c>
       <c r="I13" t="s">
-        <v>584</v>
+        <v>653</v>
       </c>
       <c r="J13" t="s">
-        <v>602</v>
+        <v>672</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5378,28 +5855,28 @@
         <v>20330051920327</v>
       </c>
       <c r="B14" t="s">
-        <v>462</v>
+        <v>531</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>490</v>
+        <v>559</v>
       </c>
       <c r="E14" t="s">
-        <v>512</v>
+        <v>581</v>
       </c>
       <c r="F14" t="s">
-        <v>533</v>
+        <v>602</v>
       </c>
       <c r="H14" t="s">
-        <v>565</v>
+        <v>634</v>
       </c>
       <c r="I14" t="s">
-        <v>585</v>
+        <v>654</v>
       </c>
       <c r="J14" t="s">
-        <v>603</v>
+        <v>673</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5407,31 +5884,31 @@
         <v>20330051920328</v>
       </c>
       <c r="B15" t="s">
-        <v>463</v>
+        <v>532</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="D15" t="s">
-        <v>491</v>
+        <v>560</v>
       </c>
       <c r="E15" t="s">
-        <v>513</v>
+        <v>582</v>
       </c>
       <c r="F15" t="s">
-        <v>534</v>
+        <v>603</v>
       </c>
       <c r="G15" t="s">
-        <v>534</v>
+        <v>603</v>
       </c>
       <c r="H15" t="s">
-        <v>566</v>
+        <v>635</v>
       </c>
       <c r="I15" t="s">
-        <v>586</v>
+        <v>655</v>
       </c>
       <c r="J15" t="s">
-        <v>604</v>
+        <v>674</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5439,31 +5916,31 @@
         <v>20330051920396</v>
       </c>
       <c r="B16" t="s">
-        <v>464</v>
+        <v>533</v>
       </c>
       <c r="C16" t="s">
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>492</v>
+        <v>561</v>
       </c>
       <c r="E16" t="s">
-        <v>514</v>
+        <v>583</v>
       </c>
       <c r="F16" t="s">
-        <v>535</v>
+        <v>604</v>
       </c>
       <c r="G16" t="s">
-        <v>535</v>
+        <v>604</v>
       </c>
       <c r="H16" t="s">
-        <v>567</v>
+        <v>636</v>
       </c>
       <c r="I16" t="s">
-        <v>587</v>
+        <v>656</v>
       </c>
       <c r="J16" t="s">
-        <v>605</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5471,31 +5948,31 @@
         <v>20330051920329</v>
       </c>
       <c r="B17" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="C17" t="s">
         <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>493</v>
+        <v>562</v>
       </c>
       <c r="E17" t="s">
-        <v>515</v>
+        <v>584</v>
       </c>
       <c r="F17" t="s">
-        <v>536</v>
+        <v>605</v>
       </c>
       <c r="G17" t="s">
-        <v>549</v>
+        <v>618</v>
       </c>
       <c r="H17" t="s">
-        <v>568</v>
+        <v>637</v>
       </c>
       <c r="I17" t="s">
-        <v>588</v>
+        <v>657</v>
       </c>
       <c r="J17" t="s">
-        <v>606</v>
+        <v>676</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5503,28 +5980,28 @@
         <v>20330051920330</v>
       </c>
       <c r="B18" t="s">
-        <v>465</v>
+        <v>534</v>
       </c>
       <c r="C18" t="s">
         <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>494</v>
+        <v>563</v>
       </c>
       <c r="E18" t="s">
-        <v>516</v>
+        <v>585</v>
       </c>
       <c r="F18" t="s">
-        <v>537</v>
+        <v>606</v>
       </c>
       <c r="G18" t="s">
-        <v>550</v>
+        <v>619</v>
       </c>
       <c r="H18" t="s">
-        <v>569</v>
+        <v>638</v>
       </c>
       <c r="J18" t="s">
-        <v>607</v>
+        <v>677</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5535,22 +6012,25 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>477</v>
+        <v>546</v>
       </c>
       <c r="D19" t="s">
-        <v>495</v>
+        <v>564</v>
       </c>
       <c r="E19" t="s">
-        <v>517</v>
+        <v>586</v>
       </c>
       <c r="F19" t="s">
-        <v>538</v>
+        <v>607</v>
       </c>
       <c r="H19" t="s">
-        <v>570</v>
+        <v>639</v>
+      </c>
+      <c r="I19" t="s">
+        <v>658</v>
       </c>
       <c r="J19" t="s">
-        <v>608</v>
+        <v>678</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5558,31 +6038,31 @@
         <v>20330051920331</v>
       </c>
       <c r="B20" t="s">
-        <v>466</v>
+        <v>535</v>
       </c>
       <c r="C20" t="s">
-        <v>308</v>
+        <v>375</v>
       </c>
       <c r="D20" t="s">
-        <v>496</v>
+        <v>565</v>
       </c>
       <c r="E20" t="s">
-        <v>518</v>
+        <v>587</v>
       </c>
       <c r="F20" t="s">
-        <v>539</v>
+        <v>608</v>
       </c>
       <c r="G20" t="s">
-        <v>551</v>
+        <v>620</v>
       </c>
       <c r="H20" t="s">
-        <v>571</v>
+        <v>640</v>
       </c>
       <c r="I20" t="s">
-        <v>589</v>
+        <v>659</v>
       </c>
       <c r="J20" t="s">
-        <v>609</v>
+        <v>679</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5590,31 +6070,31 @@
         <v>20330051920333</v>
       </c>
       <c r="B21" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="C21" t="s">
-        <v>478</v>
+        <v>547</v>
       </c>
       <c r="D21" t="s">
-        <v>497</v>
+        <v>566</v>
       </c>
       <c r="E21" t="s">
-        <v>519</v>
+        <v>588</v>
       </c>
       <c r="F21" t="s">
-        <v>540</v>
+        <v>609</v>
       </c>
       <c r="G21" t="s">
-        <v>552</v>
+        <v>621</v>
       </c>
       <c r="H21" t="s">
-        <v>572</v>
+        <v>641</v>
       </c>
       <c r="I21" t="s">
-        <v>590</v>
+        <v>660</v>
       </c>
       <c r="J21" t="s">
-        <v>610</v>
+        <v>680</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5622,31 +6102,31 @@
         <v>20330051920334</v>
       </c>
       <c r="B22" t="s">
-        <v>467</v>
+        <v>536</v>
       </c>
       <c r="C22" t="s">
-        <v>473</v>
+        <v>542</v>
       </c>
       <c r="D22" t="s">
-        <v>498</v>
+        <v>567</v>
       </c>
       <c r="E22" t="s">
-        <v>520</v>
+        <v>589</v>
       </c>
       <c r="F22" t="s">
-        <v>541</v>
+        <v>610</v>
       </c>
       <c r="G22" t="s">
-        <v>541</v>
+        <v>610</v>
       </c>
       <c r="H22" t="s">
-        <v>573</v>
+        <v>642</v>
       </c>
       <c r="I22" t="s">
-        <v>520</v>
+        <v>589</v>
       </c>
       <c r="J22" t="s">
-        <v>611</v>
+        <v>681</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -5654,28 +6134,28 @@
         <v>20330051920335</v>
       </c>
       <c r="B23" t="s">
-        <v>468</v>
+        <v>537</v>
       </c>
       <c r="C23" t="s">
-        <v>479</v>
+        <v>548</v>
       </c>
       <c r="D23" t="s">
-        <v>499</v>
+        <v>568</v>
       </c>
       <c r="E23" t="s">
-        <v>521</v>
+        <v>590</v>
       </c>
       <c r="F23" t="s">
-        <v>542</v>
+        <v>611</v>
       </c>
       <c r="H23" t="s">
-        <v>574</v>
+        <v>643</v>
       </c>
       <c r="I23" t="s">
-        <v>591</v>
+        <v>661</v>
       </c>
       <c r="J23" t="s">
-        <v>612</v>
+        <v>682</v>
       </c>
     </row>
   </sheetData>
@@ -5737,31 +6217,31 @@
         <v>19330051920307</v>
       </c>
       <c r="B2" t="s">
-        <v>455</v>
+        <v>524</v>
       </c>
       <c r="C2" t="s">
-        <v>626</v>
+        <v>696</v>
       </c>
       <c r="D2" t="s">
-        <v>640</v>
+        <v>710</v>
       </c>
       <c r="E2" t="s">
-        <v>676</v>
+        <v>746</v>
       </c>
       <c r="F2" t="s">
-        <v>714</v>
+        <v>784</v>
       </c>
       <c r="G2" t="s">
-        <v>714</v>
+        <v>784</v>
       </c>
       <c r="H2" t="s">
-        <v>759</v>
+        <v>828</v>
       </c>
       <c r="I2" t="s">
-        <v>794</v>
+        <v>865</v>
       </c>
       <c r="J2" t="s">
-        <v>815</v>
+        <v>886</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5772,28 +6252,28 @@
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>627</v>
+        <v>697</v>
       </c>
       <c r="D3" t="s">
-        <v>641</v>
+        <v>711</v>
       </c>
       <c r="E3" t="s">
-        <v>677</v>
+        <v>747</v>
       </c>
       <c r="F3" t="s">
-        <v>715</v>
+        <v>785</v>
       </c>
       <c r="G3" t="s">
-        <v>715</v>
+        <v>785</v>
       </c>
       <c r="H3" t="s">
-        <v>760</v>
+        <v>829</v>
       </c>
       <c r="I3" t="s">
-        <v>795</v>
+        <v>866</v>
       </c>
       <c r="J3" t="s">
-        <v>816</v>
+        <v>887</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5801,31 +6281,31 @@
         <v>19330051920309</v>
       </c>
       <c r="B4" t="s">
-        <v>613</v>
+        <v>683</v>
       </c>
       <c r="C4" t="s">
-        <v>628</v>
+        <v>698</v>
       </c>
       <c r="D4" t="s">
-        <v>642</v>
+        <v>712</v>
       </c>
       <c r="E4" t="s">
-        <v>678</v>
+        <v>748</v>
       </c>
       <c r="F4" t="s">
-        <v>716</v>
+        <v>786</v>
       </c>
       <c r="G4" t="s">
-        <v>752</v>
+        <v>822</v>
       </c>
       <c r="H4" t="s">
-        <v>761</v>
+        <v>830</v>
       </c>
       <c r="I4" t="s">
-        <v>796</v>
+        <v>867</v>
       </c>
       <c r="J4" t="s">
-        <v>752</v>
+        <v>822</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5833,28 +6313,28 @@
         <v>19330051920311</v>
       </c>
       <c r="B5" t="s">
-        <v>614</v>
+        <v>684</v>
       </c>
       <c r="C5" t="s">
-        <v>629</v>
+        <v>699</v>
       </c>
       <c r="D5" t="s">
-        <v>643</v>
+        <v>713</v>
       </c>
       <c r="E5" t="s">
-        <v>679</v>
+        <v>749</v>
       </c>
       <c r="F5" t="s">
-        <v>717</v>
+        <v>787</v>
       </c>
       <c r="H5" t="s">
-        <v>762</v>
+        <v>831</v>
       </c>
       <c r="I5" t="s">
-        <v>797</v>
+        <v>868</v>
       </c>
       <c r="J5" t="s">
-        <v>817</v>
+        <v>888</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5862,28 +6342,25 @@
         <v>19330051920312</v>
       </c>
       <c r="B6" t="s">
-        <v>615</v>
+        <v>685</v>
       </c>
       <c r="C6" t="s">
-        <v>630</v>
+        <v>700</v>
       </c>
       <c r="D6" t="s">
-        <v>644</v>
+        <v>714</v>
       </c>
       <c r="E6" t="s">
-        <v>680</v>
+        <v>750</v>
       </c>
       <c r="F6" t="s">
-        <v>718</v>
+        <v>788</v>
       </c>
       <c r="G6" t="s">
-        <v>718</v>
+        <v>788</v>
       </c>
       <c r="H6" t="s">
-        <v>763</v>
-      </c>
-      <c r="J6" t="s">
-        <v>718</v>
+        <v>832</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5897,25 +6374,25 @@
         <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>645</v>
+        <v>715</v>
       </c>
       <c r="E7" t="s">
-        <v>681</v>
+        <v>751</v>
       </c>
       <c r="F7" t="s">
-        <v>719</v>
+        <v>789</v>
       </c>
       <c r="G7" t="s">
-        <v>719</v>
+        <v>789</v>
       </c>
       <c r="H7" t="s">
-        <v>764</v>
+        <v>833</v>
       </c>
       <c r="I7" t="s">
-        <v>681</v>
+        <v>751</v>
       </c>
       <c r="J7" t="s">
-        <v>818</v>
+        <v>889</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5923,31 +6400,31 @@
         <v>19330051920450</v>
       </c>
       <c r="B8" t="s">
-        <v>317</v>
+        <v>384</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="D8" t="s">
-        <v>646</v>
+        <v>716</v>
       </c>
       <c r="E8" t="s">
-        <v>682</v>
+        <v>752</v>
       </c>
       <c r="F8" t="s">
-        <v>720</v>
+        <v>790</v>
       </c>
       <c r="G8" t="s">
-        <v>720</v>
+        <v>790</v>
       </c>
       <c r="H8" t="s">
-        <v>765</v>
+        <v>834</v>
       </c>
       <c r="I8" t="s">
-        <v>682</v>
+        <v>752</v>
       </c>
       <c r="J8" t="s">
-        <v>720</v>
+        <v>790</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5955,28 +6432,28 @@
         <v>19330051920318</v>
       </c>
       <c r="B9" t="s">
-        <v>616</v>
+        <v>686</v>
       </c>
       <c r="C9" t="s">
-        <v>468</v>
+        <v>537</v>
       </c>
       <c r="D9" t="s">
-        <v>647</v>
+        <v>717</v>
       </c>
       <c r="E9" t="s">
-        <v>683</v>
+        <v>753</v>
       </c>
       <c r="F9" t="s">
-        <v>721</v>
+        <v>791</v>
       </c>
       <c r="H9" t="s">
-        <v>766</v>
+        <v>835</v>
       </c>
       <c r="I9" t="s">
-        <v>798</v>
+        <v>869</v>
       </c>
       <c r="J9" t="s">
-        <v>819</v>
+        <v>890</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5987,19 +6464,19 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>631</v>
+        <v>701</v>
       </c>
       <c r="D10" t="s">
-        <v>648</v>
+        <v>718</v>
       </c>
       <c r="E10" t="s">
-        <v>684</v>
+        <v>754</v>
       </c>
       <c r="F10" t="s">
-        <v>722</v>
+        <v>792</v>
       </c>
       <c r="H10" t="s">
-        <v>767</v>
+        <v>836</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6007,28 +6484,28 @@
         <v>19330051920323</v>
       </c>
       <c r="B11" t="s">
-        <v>617</v>
+        <v>687</v>
       </c>
       <c r="C11" t="s">
-        <v>632</v>
+        <v>702</v>
       </c>
       <c r="D11" t="s">
-        <v>649</v>
+        <v>719</v>
       </c>
       <c r="E11" t="s">
-        <v>685</v>
+        <v>755</v>
       </c>
       <c r="F11" t="s">
-        <v>723</v>
+        <v>793</v>
       </c>
       <c r="H11" t="s">
-        <v>768</v>
+        <v>837</v>
       </c>
       <c r="I11" t="s">
-        <v>799</v>
+        <v>870</v>
       </c>
       <c r="J11" t="s">
-        <v>820</v>
+        <v>891</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6042,22 +6519,22 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>650</v>
+        <v>720</v>
       </c>
       <c r="E12" t="s">
-        <v>686</v>
+        <v>756</v>
       </c>
       <c r="F12" t="s">
-        <v>724</v>
+        <v>794</v>
       </c>
       <c r="G12" t="s">
-        <v>753</v>
+        <v>823</v>
       </c>
       <c r="H12" t="s">
-        <v>769</v>
+        <v>838</v>
       </c>
       <c r="J12" t="s">
-        <v>821</v>
+        <v>892</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6068,28 +6545,28 @@
         <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>633</v>
+        <v>703</v>
       </c>
       <c r="D13" t="s">
-        <v>651</v>
+        <v>721</v>
       </c>
       <c r="E13" t="s">
-        <v>687</v>
+        <v>757</v>
       </c>
       <c r="F13" t="s">
-        <v>725</v>
+        <v>795</v>
       </c>
       <c r="G13" t="s">
-        <v>725</v>
+        <v>795</v>
       </c>
       <c r="H13" t="s">
-        <v>770</v>
+        <v>839</v>
       </c>
       <c r="I13" t="s">
-        <v>800</v>
+        <v>871</v>
       </c>
       <c r="J13" t="s">
-        <v>822</v>
+        <v>893</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6100,28 +6577,28 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>634</v>
+        <v>704</v>
       </c>
       <c r="D14" t="s">
-        <v>652</v>
+        <v>722</v>
       </c>
       <c r="E14" t="s">
-        <v>688</v>
+        <v>758</v>
       </c>
       <c r="F14" t="s">
-        <v>726</v>
+        <v>796</v>
       </c>
       <c r="G14" t="s">
-        <v>726</v>
+        <v>796</v>
       </c>
       <c r="H14" t="s">
-        <v>771</v>
+        <v>840</v>
       </c>
       <c r="I14" t="s">
-        <v>688</v>
+        <v>758</v>
       </c>
       <c r="J14" t="s">
-        <v>823</v>
+        <v>894</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6132,28 +6609,28 @@
         <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>634</v>
+        <v>704</v>
       </c>
       <c r="D15" t="s">
-        <v>653</v>
+        <v>723</v>
       </c>
       <c r="E15" t="s">
-        <v>689</v>
+        <v>759</v>
       </c>
       <c r="F15" t="s">
-        <v>727</v>
+        <v>797</v>
       </c>
       <c r="G15" t="s">
-        <v>727</v>
+        <v>797</v>
       </c>
       <c r="H15" t="s">
-        <v>771</v>
+        <v>840</v>
       </c>
       <c r="I15" t="s">
-        <v>689</v>
+        <v>759</v>
       </c>
       <c r="J15" t="s">
-        <v>823</v>
+        <v>894</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6161,31 +6638,31 @@
         <v>19330051920321</v>
       </c>
       <c r="B16" t="s">
-        <v>618</v>
+        <v>688</v>
       </c>
       <c r="C16" t="s">
-        <v>635</v>
+        <v>705</v>
       </c>
       <c r="D16" t="s">
-        <v>654</v>
+        <v>724</v>
       </c>
       <c r="E16" t="s">
-        <v>690</v>
+        <v>760</v>
       </c>
       <c r="F16" t="s">
-        <v>728</v>
+        <v>798</v>
       </c>
       <c r="G16" t="s">
-        <v>728</v>
+        <v>798</v>
       </c>
       <c r="H16" t="s">
-        <v>772</v>
+        <v>841</v>
       </c>
       <c r="I16" t="s">
-        <v>801</v>
+        <v>872</v>
       </c>
       <c r="J16" t="s">
-        <v>824</v>
+        <v>895</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6196,25 +6673,25 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>636</v>
+        <v>706</v>
       </c>
       <c r="D17" t="s">
         <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>691</v>
+        <v>761</v>
       </c>
       <c r="F17" t="s">
-        <v>729</v>
+        <v>799</v>
       </c>
       <c r="H17" t="s">
-        <v>773</v>
+        <v>842</v>
       </c>
       <c r="I17" t="s">
-        <v>802</v>
+        <v>873</v>
       </c>
       <c r="J17" t="s">
-        <v>825</v>
+        <v>896</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6228,22 +6705,22 @@
         <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>655</v>
+        <v>725</v>
       </c>
       <c r="E18" t="s">
-        <v>692</v>
+        <v>762</v>
       </c>
       <c r="F18" t="s">
-        <v>730</v>
+        <v>800</v>
       </c>
       <c r="G18" t="s">
-        <v>730</v>
+        <v>800</v>
       </c>
       <c r="H18" t="s">
-        <v>774</v>
+        <v>843</v>
       </c>
       <c r="J18" t="s">
-        <v>826</v>
+        <v>897</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6251,28 +6728,28 @@
         <v>19330051920331</v>
       </c>
       <c r="B19" t="s">
-        <v>619</v>
+        <v>689</v>
       </c>
       <c r="C19" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
       <c r="D19" t="s">
-        <v>656</v>
+        <v>726</v>
       </c>
       <c r="E19" t="s">
-        <v>693</v>
+        <v>763</v>
       </c>
       <c r="F19" t="s">
-        <v>731</v>
+        <v>801</v>
       </c>
       <c r="H19" t="s">
-        <v>775</v>
+        <v>844</v>
       </c>
       <c r="I19" t="s">
-        <v>803</v>
+        <v>874</v>
       </c>
       <c r="J19" t="s">
-        <v>827</v>
+        <v>898</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -6286,25 +6763,25 @@
         <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>657</v>
+        <v>727</v>
       </c>
       <c r="E20" t="s">
-        <v>694</v>
+        <v>764</v>
       </c>
       <c r="F20" t="s">
-        <v>732</v>
+        <v>802</v>
       </c>
       <c r="G20" t="s">
-        <v>732</v>
+        <v>802</v>
       </c>
       <c r="H20" t="s">
-        <v>776</v>
+        <v>845</v>
       </c>
       <c r="I20" t="s">
-        <v>804</v>
+        <v>875</v>
       </c>
       <c r="J20" t="s">
-        <v>828</v>
+        <v>899</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -6312,28 +6789,28 @@
         <v>19330051920334</v>
       </c>
       <c r="B21" t="s">
-        <v>620</v>
+        <v>690</v>
       </c>
       <c r="C21" t="s">
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>658</v>
+        <v>728</v>
       </c>
       <c r="E21" t="s">
-        <v>695</v>
+        <v>765</v>
       </c>
       <c r="F21" t="s">
-        <v>733</v>
+        <v>803</v>
       </c>
       <c r="H21" t="s">
-        <v>777</v>
+        <v>846</v>
       </c>
       <c r="I21" t="s">
-        <v>805</v>
+        <v>876</v>
       </c>
       <c r="J21" t="s">
-        <v>829</v>
+        <v>900</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -6344,28 +6821,28 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>637</v>
+        <v>707</v>
       </c>
       <c r="D22" t="s">
-        <v>659</v>
+        <v>729</v>
       </c>
       <c r="E22" t="s">
-        <v>696</v>
+        <v>766</v>
       </c>
       <c r="F22" t="s">
-        <v>734</v>
+        <v>804</v>
       </c>
       <c r="G22" t="s">
-        <v>734</v>
+        <v>804</v>
       </c>
       <c r="H22" t="s">
-        <v>778</v>
+        <v>847</v>
       </c>
       <c r="I22" t="s">
-        <v>696</v>
+        <v>766</v>
       </c>
       <c r="J22" t="s">
-        <v>830</v>
+        <v>901</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -6373,31 +6850,31 @@
         <v>19330051920338</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>660</v>
+        <v>730</v>
       </c>
       <c r="E23" t="s">
-        <v>697</v>
+        <v>767</v>
       </c>
       <c r="F23" t="s">
-        <v>735</v>
+        <v>805</v>
       </c>
       <c r="G23" t="s">
-        <v>754</v>
+        <v>314</v>
       </c>
       <c r="H23" t="s">
-        <v>779</v>
+        <v>848</v>
       </c>
       <c r="I23" t="s">
-        <v>278</v>
+        <v>346</v>
       </c>
       <c r="J23" t="s">
-        <v>831</v>
+        <v>902</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -6405,25 +6882,25 @@
         <v>19330051920339</v>
       </c>
       <c r="B24" t="s">
-        <v>621</v>
+        <v>691</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>661</v>
+        <v>731</v>
       </c>
       <c r="E24" t="s">
-        <v>698</v>
+        <v>768</v>
       </c>
       <c r="F24" t="s">
-        <v>736</v>
+        <v>806</v>
       </c>
       <c r="H24" t="s">
-        <v>780</v>
+        <v>849</v>
       </c>
       <c r="J24" t="s">
-        <v>832</v>
+        <v>903</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -6431,31 +6908,31 @@
         <v>19330051920340</v>
       </c>
       <c r="B25" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="C25" t="s">
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>662</v>
+        <v>732</v>
       </c>
       <c r="E25" t="s">
-        <v>699</v>
+        <v>769</v>
       </c>
       <c r="F25" t="s">
-        <v>737</v>
+        <v>807</v>
       </c>
       <c r="G25" t="s">
-        <v>755</v>
+        <v>824</v>
       </c>
       <c r="H25" t="s">
-        <v>781</v>
+        <v>850</v>
       </c>
       <c r="I25" t="s">
-        <v>806</v>
+        <v>877</v>
       </c>
       <c r="J25" t="s">
-        <v>833</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -6463,31 +6940,31 @@
         <v>19330051920445</v>
       </c>
       <c r="B26" t="s">
-        <v>622</v>
+        <v>692</v>
       </c>
       <c r="C26" t="s">
         <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>663</v>
+        <v>733</v>
       </c>
       <c r="E26" t="s">
-        <v>700</v>
+        <v>770</v>
       </c>
       <c r="F26" t="s">
-        <v>738</v>
+        <v>808</v>
       </c>
       <c r="G26" t="s">
-        <v>738</v>
+        <v>808</v>
       </c>
       <c r="H26" t="s">
-        <v>782</v>
+        <v>851</v>
       </c>
       <c r="I26" t="s">
-        <v>807</v>
+        <v>878</v>
       </c>
       <c r="J26" t="s">
-        <v>834</v>
+        <v>904</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -6498,16 +6975,19 @@
         <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>638</v>
+        <v>708</v>
       </c>
       <c r="D27" t="s">
-        <v>664</v>
+        <v>734</v>
       </c>
       <c r="E27" t="s">
-        <v>701</v>
+        <v>771</v>
       </c>
       <c r="F27" t="s">
-        <v>739</v>
+        <v>809</v>
+      </c>
+      <c r="H27" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -6515,31 +6995,31 @@
         <v>19330051920341</v>
       </c>
       <c r="B28" t="s">
-        <v>623</v>
+        <v>693</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>665</v>
+        <v>735</v>
       </c>
       <c r="E28" t="s">
-        <v>702</v>
+        <v>772</v>
       </c>
       <c r="F28" t="s">
-        <v>740</v>
+        <v>810</v>
       </c>
       <c r="G28" t="s">
-        <v>740</v>
+        <v>810</v>
       </c>
       <c r="H28" t="s">
-        <v>783</v>
+        <v>853</v>
       </c>
       <c r="I28" t="s">
-        <v>808</v>
+        <v>879</v>
       </c>
       <c r="J28" t="s">
-        <v>835</v>
+        <v>905</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -6550,25 +7030,25 @@
         <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>455</v>
+        <v>524</v>
       </c>
       <c r="D29" t="s">
-        <v>666</v>
+        <v>736</v>
       </c>
       <c r="E29" t="s">
-        <v>703</v>
+        <v>773</v>
       </c>
       <c r="F29" t="s">
-        <v>741</v>
+        <v>811</v>
       </c>
       <c r="H29" t="s">
-        <v>784</v>
+        <v>854</v>
       </c>
       <c r="I29" t="s">
-        <v>809</v>
+        <v>880</v>
       </c>
       <c r="J29" t="s">
-        <v>836</v>
+        <v>906</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -6576,31 +7056,31 @@
         <v>19330051920347</v>
       </c>
       <c r="B30" t="s">
-        <v>624</v>
+        <v>694</v>
       </c>
       <c r="C30" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="D30" t="s">
-        <v>667</v>
+        <v>737</v>
       </c>
       <c r="E30" t="s">
-        <v>704</v>
+        <v>774</v>
       </c>
       <c r="F30" t="s">
-        <v>742</v>
+        <v>812</v>
       </c>
       <c r="G30" t="s">
-        <v>742</v>
+        <v>812</v>
       </c>
       <c r="H30" t="s">
-        <v>785</v>
+        <v>855</v>
       </c>
       <c r="I30" t="s">
-        <v>704</v>
+        <v>774</v>
       </c>
       <c r="J30" t="s">
-        <v>742</v>
+        <v>812</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -6608,28 +7088,28 @@
         <v>19330051920440</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="C31" t="s">
         <v>21</v>
       </c>
       <c r="D31" t="s">
-        <v>668</v>
+        <v>738</v>
       </c>
       <c r="E31" t="s">
-        <v>705</v>
+        <v>775</v>
       </c>
       <c r="F31" t="s">
-        <v>743</v>
+        <v>813</v>
       </c>
       <c r="G31" t="s">
-        <v>743</v>
+        <v>813</v>
       </c>
       <c r="H31" t="s">
-        <v>786</v>
+        <v>856</v>
       </c>
       <c r="J31" t="s">
-        <v>837</v>
+        <v>907</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -6637,31 +7117,31 @@
         <v>19330051920345</v>
       </c>
       <c r="B32" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="C32" t="s">
         <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>669</v>
+        <v>739</v>
       </c>
       <c r="E32" t="s">
-        <v>706</v>
+        <v>776</v>
       </c>
       <c r="F32" t="s">
-        <v>744</v>
+        <v>814</v>
       </c>
       <c r="G32" t="s">
-        <v>756</v>
+        <v>825</v>
       </c>
       <c r="H32" t="s">
-        <v>787</v>
+        <v>857</v>
       </c>
       <c r="I32" t="s">
-        <v>810</v>
+        <v>881</v>
       </c>
       <c r="J32" t="s">
-        <v>838</v>
+        <v>908</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6669,31 +7149,31 @@
         <v>19330051920346</v>
       </c>
       <c r="B33" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="C33" t="s">
-        <v>313</v>
+        <v>380</v>
       </c>
       <c r="D33" t="s">
-        <v>670</v>
+        <v>740</v>
       </c>
       <c r="E33" t="s">
-        <v>707</v>
+        <v>777</v>
       </c>
       <c r="F33" t="s">
-        <v>745</v>
+        <v>815</v>
       </c>
       <c r="G33" t="s">
-        <v>757</v>
+        <v>826</v>
       </c>
       <c r="H33" t="s">
-        <v>788</v>
+        <v>858</v>
       </c>
       <c r="I33" t="s">
-        <v>811</v>
+        <v>882</v>
       </c>
       <c r="J33" t="s">
-        <v>839</v>
+        <v>909</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -6701,31 +7181,31 @@
         <v>19330051920350</v>
       </c>
       <c r="B34" t="s">
-        <v>467</v>
+        <v>536</v>
       </c>
       <c r="C34" t="s">
-        <v>318</v>
+        <v>385</v>
       </c>
       <c r="D34" t="s">
-        <v>671</v>
+        <v>741</v>
       </c>
       <c r="E34" t="s">
-        <v>708</v>
+        <v>778</v>
       </c>
       <c r="F34" t="s">
-        <v>746</v>
+        <v>816</v>
       </c>
       <c r="G34" t="s">
-        <v>746</v>
+        <v>816</v>
       </c>
       <c r="H34" t="s">
-        <v>789</v>
+        <v>859</v>
       </c>
       <c r="I34" t="s">
-        <v>812</v>
+        <v>883</v>
       </c>
       <c r="J34" t="s">
-        <v>840</v>
+        <v>910</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -6736,28 +7216,28 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>639</v>
+        <v>709</v>
       </c>
       <c r="D35" t="s">
-        <v>652</v>
+        <v>722</v>
       </c>
       <c r="E35" t="s">
-        <v>709</v>
+        <v>779</v>
       </c>
       <c r="F35" t="s">
-        <v>747</v>
+        <v>817</v>
       </c>
       <c r="G35" t="s">
-        <v>758</v>
+        <v>827</v>
       </c>
       <c r="H35" t="s">
-        <v>790</v>
+        <v>860</v>
       </c>
       <c r="I35" t="s">
-        <v>813</v>
+        <v>884</v>
       </c>
       <c r="J35" t="s">
-        <v>841</v>
+        <v>911</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -6771,19 +7251,19 @@
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>672</v>
+        <v>742</v>
       </c>
       <c r="E36" t="s">
-        <v>710</v>
+        <v>780</v>
       </c>
       <c r="F36" t="s">
-        <v>748</v>
+        <v>818</v>
       </c>
       <c r="H36" t="s">
-        <v>791</v>
+        <v>861</v>
       </c>
       <c r="J36" t="s">
-        <v>842</v>
+        <v>912</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -6797,25 +7277,25 @@
         <v>45</v>
       </c>
       <c r="D37" t="s">
-        <v>673</v>
+        <v>743</v>
       </c>
       <c r="E37" t="s">
-        <v>711</v>
+        <v>781</v>
       </c>
       <c r="F37" t="s">
-        <v>749</v>
+        <v>819</v>
       </c>
       <c r="G37" t="s">
-        <v>749</v>
+        <v>819</v>
       </c>
       <c r="H37" t="s">
-        <v>792</v>
+        <v>862</v>
       </c>
       <c r="I37" t="s">
-        <v>814</v>
+        <v>885</v>
       </c>
       <c r="J37" t="s">
-        <v>843</v>
+        <v>913</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -6823,19 +7303,22 @@
         <v>19330051920353</v>
       </c>
       <c r="B38" t="s">
-        <v>625</v>
+        <v>695</v>
       </c>
       <c r="C38" t="s">
         <v>30</v>
       </c>
       <c r="D38" t="s">
-        <v>674</v>
+        <v>744</v>
       </c>
       <c r="E38" t="s">
-        <v>712</v>
+        <v>782</v>
       </c>
       <c r="F38" t="s">
-        <v>750</v>
+        <v>820</v>
+      </c>
+      <c r="H38" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -6849,25 +7332,25 @@
         <v>57</v>
       </c>
       <c r="D39" t="s">
-        <v>675</v>
+        <v>745</v>
       </c>
       <c r="E39" t="s">
-        <v>713</v>
+        <v>783</v>
       </c>
       <c r="F39" t="s">
-        <v>751</v>
+        <v>821</v>
       </c>
       <c r="G39" t="s">
-        <v>751</v>
+        <v>821</v>
       </c>
       <c r="H39" t="s">
-        <v>793</v>
+        <v>864</v>
       </c>
       <c r="I39" t="s">
-        <v>713</v>
+        <v>783</v>
       </c>
       <c r="J39" t="s">
-        <v>844</v>
+        <v>914</v>
       </c>
     </row>
   </sheetData>
